--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.733102684907309</v>
+        <v>0.7990306666666668</v>
       </c>
       <c r="N2">
-        <v>0.733102684907309</v>
+        <v>2.397092</v>
       </c>
       <c r="O2">
-        <v>0.3115533268847487</v>
+        <v>0.3065513402634041</v>
       </c>
       <c r="P2">
-        <v>0.3115533268847487</v>
+        <v>0.3495008831958056</v>
       </c>
       <c r="Q2">
-        <v>0.7897506097599597</v>
+        <v>1.00059414264</v>
       </c>
       <c r="R2">
-        <v>0.7897506097599597</v>
+        <v>9.005347283760001</v>
       </c>
       <c r="S2">
-        <v>0.01683181887655783</v>
+        <v>0.01763836229461208</v>
       </c>
       <c r="T2">
-        <v>0.01683181887655783</v>
+        <v>0.02152241912589661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.659036353072016</v>
+        <v>0.8465543333333333</v>
       </c>
       <c r="N3">
-        <v>0.659036353072016</v>
+        <v>2.539663</v>
       </c>
       <c r="O3">
-        <v>0.2800766830686742</v>
+        <v>0.3247839867920704</v>
       </c>
       <c r="P3">
-        <v>0.2800766830686742</v>
+        <v>0.3702880246230471</v>
       </c>
       <c r="Q3">
-        <v>0.7099610633105399</v>
+        <v>1.06010612946</v>
       </c>
       <c r="R3">
-        <v>0.7099610633105399</v>
+        <v>9.54095516514</v>
       </c>
       <c r="S3">
-        <v>0.01513127800013163</v>
+        <v>0.01868743298138803</v>
       </c>
       <c r="T3">
-        <v>0.01513127800013163</v>
+        <v>0.02280250049832545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.960917795782241</v>
+        <v>0.9609300000000001</v>
       </c>
       <c r="N4">
-        <v>0.960917795782241</v>
+        <v>1.92186</v>
       </c>
       <c r="O4">
-        <v>0.4083699900465771</v>
+        <v>0.3686646729445256</v>
       </c>
       <c r="P4">
-        <v>0.4083699900465771</v>
+        <v>0.2802110921811474</v>
       </c>
       <c r="Q4">
-        <v>1.035169329988434</v>
+        <v>1.2033342018</v>
       </c>
       <c r="R4">
-        <v>1.035169329988434</v>
+        <v>7.2200052108</v>
       </c>
       <c r="S4">
-        <v>0.02206238583877626</v>
+        <v>0.0212122415156718</v>
       </c>
       <c r="T4">
-        <v>0.02206238583877626</v>
+        <v>0.01725552311771749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H5">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I5">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J5">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.733102684907309</v>
+        <v>0.7990306666666668</v>
       </c>
       <c r="N5">
-        <v>0.733102684907309</v>
+        <v>2.397092</v>
       </c>
       <c r="O5">
-        <v>0.3115533268847487</v>
+        <v>0.3065513402634041</v>
       </c>
       <c r="P5">
-        <v>0.3115533268847487</v>
+        <v>0.3495008831958056</v>
       </c>
       <c r="Q5">
-        <v>8.033736564095554</v>
+        <v>9.975253321928889</v>
       </c>
       <c r="R5">
-        <v>8.033736564095554</v>
+        <v>89.77727989736</v>
       </c>
       <c r="S5">
-        <v>0.1712216452608203</v>
+        <v>0.1758426564525851</v>
       </c>
       <c r="T5">
-        <v>0.1712216452608203</v>
+        <v>0.2145641012000097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H6">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I6">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J6">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.659036353072016</v>
+        <v>0.8465543333333333</v>
       </c>
       <c r="N6">
-        <v>0.659036353072016</v>
+        <v>2.539663</v>
       </c>
       <c r="O6">
-        <v>0.2800766830686742</v>
+        <v>0.3247839867920704</v>
       </c>
       <c r="P6">
-        <v>0.2800766830686742</v>
+        <v>0.3702880246230471</v>
       </c>
       <c r="Q6">
-        <v>7.222077555768689</v>
+        <v>10.56854796450444</v>
       </c>
       <c r="R6">
-        <v>7.222077555768689</v>
+        <v>95.11693168053999</v>
       </c>
       <c r="S6">
-        <v>0.1539228964547426</v>
+        <v>0.186301188445976</v>
       </c>
       <c r="T6">
-        <v>0.1539228964547426</v>
+        <v>0.2273256549794168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J7">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.960917795782241</v>
+        <v>0.9609300000000001</v>
       </c>
       <c r="N7">
-        <v>0.960917795782241</v>
+        <v>1.92186</v>
       </c>
       <c r="O7">
-        <v>0.4083699900465771</v>
+        <v>0.3686646729445256</v>
       </c>
       <c r="P7">
-        <v>0.4083699900465771</v>
+        <v>0.2802110921811474</v>
       </c>
       <c r="Q7">
-        <v>10.53025802523415</v>
+        <v>11.9964358998</v>
       </c>
       <c r="R7">
-        <v>10.53025802523415</v>
+        <v>71.9786153988</v>
       </c>
       <c r="S7">
-        <v>0.2244295776587408</v>
+        <v>0.2114718382085242</v>
       </c>
       <c r="T7">
-        <v>0.2244295776587408</v>
+        <v>0.1720260063160908</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H8">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I8">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J8">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.733102684907309</v>
+        <v>0.7990306666666668</v>
       </c>
       <c r="N8">
-        <v>0.733102684907309</v>
+        <v>2.397092</v>
       </c>
       <c r="O8">
-        <v>0.3115533268847487</v>
+        <v>0.3065513402634041</v>
       </c>
       <c r="P8">
-        <v>0.3115533268847487</v>
+        <v>0.3495008831958056</v>
       </c>
       <c r="Q8">
-        <v>0.9664103686172646</v>
+        <v>1.123107650355111</v>
       </c>
       <c r="R8">
-        <v>0.9664103686172646</v>
+        <v>10.107968853196</v>
       </c>
       <c r="S8">
-        <v>0.0205969379244131</v>
+        <v>0.01979801678685345</v>
       </c>
       <c r="T8">
-        <v>0.0205969379244131</v>
+        <v>0.02415764049014665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H9">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I9">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J9">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.659036353072016</v>
+        <v>0.8465543333333333</v>
       </c>
       <c r="N9">
-        <v>0.659036353072016</v>
+        <v>2.539663</v>
       </c>
       <c r="O9">
-        <v>0.2800766830686742</v>
+        <v>0.3247839867920704</v>
       </c>
       <c r="P9">
-        <v>0.2800766830686742</v>
+        <v>0.3702880246230471</v>
       </c>
       <c r="Q9">
-        <v>0.8687726535676679</v>
+        <v>1.189906330096555</v>
       </c>
       <c r="R9">
-        <v>0.8687726535676679</v>
+        <v>10.709156970869</v>
       </c>
       <c r="S9">
-        <v>0.01851600210122294</v>
+        <v>0.02097553648627195</v>
       </c>
       <c r="T9">
-        <v>0.01851600210122294</v>
+        <v>0.02559445599923879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H10">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I10">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J10">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.960917795782241</v>
+        <v>0.9609300000000001</v>
       </c>
       <c r="N10">
-        <v>0.960917795782241</v>
+        <v>1.92186</v>
       </c>
       <c r="O10">
-        <v>0.4083699900465771</v>
+        <v>0.3686646729445256</v>
       </c>
       <c r="P10">
-        <v>0.4083699900465771</v>
+        <v>0.2802110921811474</v>
       </c>
       <c r="Q10">
-        <v>1.266726940647092</v>
+        <v>1.35067135653</v>
       </c>
       <c r="R10">
-        <v>1.266726940647092</v>
+        <v>8.104028139179999</v>
       </c>
       <c r="S10">
-        <v>0.02699753335740833</v>
+        <v>0.02380948449745494</v>
       </c>
       <c r="T10">
-        <v>0.02699753335740833</v>
+        <v>0.01936830249001425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H11">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I11">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J11">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.733102684907309</v>
+        <v>0.7990306666666668</v>
       </c>
       <c r="N11">
-        <v>0.733102684907309</v>
+        <v>2.397092</v>
       </c>
       <c r="O11">
-        <v>0.3115533268847487</v>
+        <v>0.3065513402634041</v>
       </c>
       <c r="P11">
-        <v>0.3115533268847487</v>
+        <v>0.3495008831958056</v>
       </c>
       <c r="Q11">
-        <v>1.691109762838065</v>
+        <v>1.866488228180445</v>
       </c>
       <c r="R11">
-        <v>1.691109762838065</v>
+        <v>16.798394053624</v>
       </c>
       <c r="S11">
-        <v>0.03604233143564218</v>
+        <v>0.03290224695940487</v>
       </c>
       <c r="T11">
-        <v>0.03604233143564218</v>
+        <v>0.04014748860558218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H12">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I12">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J12">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.659036353072016</v>
+        <v>0.8465543333333333</v>
       </c>
       <c r="N12">
-        <v>0.659036353072016</v>
+        <v>2.539663</v>
       </c>
       <c r="O12">
-        <v>0.2800766830686742</v>
+        <v>0.3247839867920704</v>
       </c>
       <c r="P12">
-        <v>0.2800766830686742</v>
+        <v>0.3702880246230471</v>
       </c>
       <c r="Q12">
-        <v>1.520254711502242</v>
+        <v>1.977500693776222</v>
       </c>
       <c r="R12">
-        <v>1.520254711502242</v>
+        <v>17.797506243986</v>
       </c>
       <c r="S12">
-        <v>0.03240092712054625</v>
+        <v>0.03485916235991903</v>
       </c>
       <c r="T12">
-        <v>0.03240092712054625</v>
+        <v>0.04253532670190324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H13">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I13">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J13">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.960917795782241</v>
+        <v>0.9609300000000001</v>
       </c>
       <c r="N13">
-        <v>0.960917795782241</v>
+        <v>1.92186</v>
       </c>
       <c r="O13">
-        <v>0.4083699900465771</v>
+        <v>0.3686646729445256</v>
       </c>
       <c r="P13">
-        <v>0.4083699900465771</v>
+        <v>0.2802110921811474</v>
       </c>
       <c r="Q13">
-        <v>2.216630083598238</v>
+        <v>2.24467546482</v>
       </c>
       <c r="R13">
-        <v>2.216630083598238</v>
+        <v>13.46805278892</v>
       </c>
       <c r="S13">
-        <v>0.04724265562111429</v>
+        <v>0.03956888951784194</v>
       </c>
       <c r="T13">
-        <v>0.04724265562111429</v>
+        <v>0.03218810644377611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H14">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I14">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J14">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.733102684907309</v>
+        <v>0.7990306666666668</v>
       </c>
       <c r="N14">
-        <v>0.733102684907309</v>
+        <v>2.397092</v>
       </c>
       <c r="O14">
-        <v>0.3115533268847487</v>
+        <v>0.3065513402634041</v>
       </c>
       <c r="P14">
-        <v>0.3115533268847487</v>
+        <v>0.3495008831958056</v>
       </c>
       <c r="Q14">
-        <v>3.137105667771028</v>
+        <v>3.424690183050668</v>
       </c>
       <c r="R14">
-        <v>3.137105667771028</v>
+        <v>20.548141098304</v>
       </c>
       <c r="S14">
-        <v>0.06686059338731527</v>
+        <v>0.06037005776994864</v>
       </c>
       <c r="T14">
-        <v>0.06686059338731527</v>
+        <v>0.04910923377417038</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H15">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I15">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J15">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.659036353072016</v>
+        <v>0.8465543333333333</v>
       </c>
       <c r="N15">
-        <v>0.659036353072016</v>
+        <v>2.539663</v>
       </c>
       <c r="O15">
-        <v>0.2800766830686742</v>
+        <v>0.3247839867920704</v>
       </c>
       <c r="P15">
-        <v>0.2800766830686742</v>
+        <v>0.3702880246230471</v>
       </c>
       <c r="Q15">
-        <v>2.820159741674897</v>
+        <v>3.628379279709333</v>
       </c>
       <c r="R15">
-        <v>2.820159741674897</v>
+        <v>21.770275678256</v>
       </c>
       <c r="S15">
-        <v>0.06010557939203081</v>
+        <v>0.06396066651851537</v>
       </c>
       <c r="T15">
-        <v>0.06010557939203081</v>
+        <v>0.05203008644416271</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H16">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I16">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J16">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.960917795782241</v>
+        <v>0.9609300000000001</v>
       </c>
       <c r="N16">
-        <v>0.960917795782241</v>
+        <v>1.92186</v>
       </c>
       <c r="O16">
-        <v>0.4083699900465771</v>
+        <v>0.3686646729445256</v>
       </c>
       <c r="P16">
-        <v>0.4083699900465771</v>
+        <v>0.2802110921811474</v>
       </c>
       <c r="Q16">
-        <v>4.111976023920381</v>
+        <v>4.11859979208</v>
       </c>
       <c r="R16">
-        <v>4.111976023920381</v>
+        <v>16.47439916832</v>
       </c>
       <c r="S16">
-        <v>0.08763783757053749</v>
+        <v>0.07260221920503269</v>
       </c>
       <c r="T16">
-        <v>0.08763783757053749</v>
+        <v>0.03937315381354871</v>
       </c>
     </row>
   </sheetData>
